--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\pythoncourse\personal\pygame show\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9CCDAC-A046-422B-9B04-6573FB4CCF64}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C092A36B-F245-47C6-A999-BC865BCB7137}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2219BD22-1BDC-4349-8C7B-8C59127B070F}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>How are you?</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>How many seasons does friends has?</t>
+  </si>
+  <si>
+    <t>The quick brown fox jumps over the lazy dog The quick brown fox jumps over the lazy dog The quick brown fox jumps over the lazy dog The quick brown fox jumps over the lazy dog The quick brown fox jumps over the lazy dog The quick brown fox jumps over the lazy dog The quick brown fox jumps over the lazy dog The quick brown fox jumps over the lazy dog The quick brown fox jumps over the lazy dog The quick brown fox jumps over the lazy dog The quick brown fox jumps over the lazy dog The quick brown fox jumps over the lazy dog The quick brown fox jumps over the lazy dog The quick brown fox jumps over the lazy dog The quick brown fox jumps over the lazy dog The quick brown fox jumps over the lazy dog The quick brown fox jumps over the lazy dog The quick brown fox jumps over the lazy dog The quick brown fox jumps over the lazy dog The quick brown fox jumps over the lazy dog The quick brown fox jumps over the lazy dog The quick brown fox jumps over the lazy dog The quick brown fox jumps over the lazy dog ?</t>
   </si>
 </sst>
 </file>
@@ -390,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D64AF694-C4ED-43E5-A5B7-93E1ED666D73}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,6 +416,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
